--- a/conferences.xlsx
+++ b/conferences.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="224">
   <si>
     <t>https://www.usenix.org/conferences/author-resources/paper-templates</t>
   </si>
@@ -69,43 +69,175 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>http://icac2016.uni-wuerzburg.de/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议全称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近截稿日</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Conference on Computer and Communications Security</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.acm.org/sigs/sigsac/ccs/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRYPTO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Springer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUROCRYPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>European Cryptology Conference</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>S&amp;P</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ieee-security.org/TC/SP-Index.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euro S&amp;P</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Symposiumon Security and Privacy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USENIX Security</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usenix Security Symposium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USENIX Association</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAST</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.usenix.org/conference/fast16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.usenix.org/conference/linuxfastsummit16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.usenix.org/conference/linuxfastsummit16/call-for-participation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANCS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ancsconf.org/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>SOUPS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>http://icac2016.uni-wuerzburg.de/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议全称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版社</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近截稿日</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACM Conference on Computer and Communications Security</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.acm.org/sigs/sigsac/ccs/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRYPTO</t>
+    <t>https://www.usenix.org/conference/soups2016</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.usenix.org/conference/soups2016/call-for-papers</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USENIX ATC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.usenix.org/conference/atc16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.usenix.org/conference/atc16/call-for-papers</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USENIX Security Symposium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.usenix.org/conference/usenixsecurity16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pending</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICAC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://icac2016.uni-wuerzburg.de/calls/call-for-papers/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACSAC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual Computer Security Applications Conference</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.acsac.org/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASIACRYPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual International Conference on the Theory and Application of Cryptology and Information Security</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -113,710 +245,627 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>EUROCRYPT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>European Cryptology Conference</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>S&amp;P</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ieee-security.org/TC/SP-Index.html</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Euro S&amp;P</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE Symposiumon Security and Privacy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>USENIX Security</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Usenix Security Symposium</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>USENIX Association</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAST</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.usenix.org/conference/fast16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.usenix.org/conference/linuxfastsummit16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.usenix.org/conference/linuxfastsummit16/call-for-participation</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANCS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ancsconf.org/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUPS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.usenix.org/conference/soups2016</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.usenix.org/conference/soups2016/call-for-papers</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>USENIX ATC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.usenix.org/conference/atc16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.usenix.org/conference/atc16/call-for-papers</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>USENIX Security Symposium</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.usenix.org/conference/usenixsecurity16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>European Symposium on Research in Computer Security</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast Software Encryption</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDSS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISOC Network and Distributed System Security Symposium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISOC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Symposium on Recent Advances in Intrusion Detection</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.raid-symposium.org/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Workshop on Practice and Theory in Public Key Cryptography</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The International Conference on Dependable Systems and Networks</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE/IFIP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dsn.org/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theory of Cryptography Conference</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tcc2013.com/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRDS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE International Symposium on Reliable Distributed Systems</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.mst.edu/~cswebdb/srds2012/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHES</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workshop on Cryptographic Hardware and Embedded Systems</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WiSec</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Conference on Security and Privacy inWireless and Mobile Networks</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM MM&amp;SEC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Multimedia and Security Workshop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SACMAT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Symposium on Access Control Models and Technologies</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASIACCS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Symposium on Information, Computer and Communications Security</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Workshop on Digital Rights Management</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://drm11.cased.de/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACNS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applied Cryptography and Network Security</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACISP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AustralasiaConferenceonInformation Security and Privacy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFRWS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Forensic Research Workshop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elsevier</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Financial Cryptography and Data Security</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIMVA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detection of Intrusions and Malware &amp; Vulnerability Assessment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIDAR、GI、Springer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFIP International Information Security Conference</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFIP WG 11.9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFIP WG 11.9 International Conference on Digital Forensics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ifip119.org/Conferences/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information Security Conference</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secure Comm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Security and Privacy in Communication Networks</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSPW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Security Paradigms Workshop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT-RSA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSA Conference, Cryptographers' Track</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symposium On Usable Privacy and Security</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HotSec</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USENIX Workshop on Hot Topics in Security</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USENIX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usenix.org/events/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected Areas in Cryptography</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrustCom</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE International Conference on Trust, Security and Privacy in Computing and Communications</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.iacr.org/conferences/crypto2016/callforpapers.html</t>
+  </si>
+  <si>
+    <t>http://www.sigsac.org/proposal/ccs.html</t>
+  </si>
+  <si>
+    <t>CFP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cfp.org/2015/wiki/index.php/Main_Page</t>
+  </si>
+  <si>
+    <t>ESSoS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://distrinet.cs.kuleuven.be/events/essos/2016/calls-papers.html</t>
+  </si>
+  <si>
+    <t>SIN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sinconf.org/sin2016/index.php</t>
+  </si>
+  <si>
+    <t>http://www.sinconf.org/sin2016/index.php/sin2016-6</t>
+  </si>
+  <si>
+    <t>https://ifipsec.org/2016/</t>
+  </si>
+  <si>
+    <t>SEC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://asiacrypt2016.com/</t>
+  </si>
+  <si>
+    <t>http://asiacrypt2016.com/?page_id=38</t>
   </si>
   <si>
     <t>pending</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ICAC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://icac2016.uni-wuerzburg.de/calls/call-for-papers/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACSAC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annual Computer Security Applications Conference</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.acsac.org/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASIACRYPT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annual International Conference on the Theory and Application of Cryptology and Information Security</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Springer</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>European Symposium on Research in Computer Security</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fast Software Encryption</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NDSS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISOC Network and Distributed System Security Symposium</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISOC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>International Symposium on Recent Advances in Intrusion Detection</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.raid-symposium.org/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>PKC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>International Workshop on Practice and Theory in Public Key Cryptography</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>The International Conference on Dependable Systems and Networks</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE/IFIP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.dsn.org/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Theory of Cryptography Conference</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tcc2013.com/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRDS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE International Symposium on Reliable Distributed Systems</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://web.mst.edu/~cswebdb/srds2012/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHES</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Workshop on Cryptographic Hardware and Embedded Systems</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>http://faculty.cs.tamu.edu/guofei/sec_conf_stat.htm</t>
+  </si>
+  <si>
+    <t>USENIX paper template</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Security Conference Ranking and Statistic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESORICS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://esorics2015.sba-research.org/</t>
+  </si>
+  <si>
+    <t>pending</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://satoss.uni.lu/members/jun/conference.php</t>
+  </si>
+  <si>
+    <t>Conferences &amp; Workshops on Security and Privacy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICWE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://icwe2016.inf.usi.ch/</t>
+  </si>
+  <si>
+    <t>ICWSM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.icwsm.org/2016/index.php</t>
+  </si>
+  <si>
+    <t>CSF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Computer Security Foundations Symposium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://csf2016.tecnico.ulisboa.pt/index.html</t>
+  </si>
+  <si>
+    <t>PETS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://petsymposium.org/2016/</t>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cs.ucdavis.edu/fse2016/</t>
+  </si>
+  <si>
+    <t>http://www.cs.ucdavis.edu/fse2016/calls/research-papers/</t>
+  </si>
+  <si>
+    <t>https://www.internetsociety.org/events/ndss-symposium-2016</t>
+  </si>
+  <si>
+    <t>http://www.internetsociety.org/events/ndss-symposium-2016/ndss-2016-call-papers</t>
+  </si>
+  <si>
+    <t>http://troll.iis.sinica.edu.tw/pkc16/</t>
+  </si>
+  <si>
+    <t>COMPSAC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.computer.org/portal/web/COMPSAC</t>
+  </si>
+  <si>
+    <t>nope</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nope</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.computer.org/web/compsac2016</t>
+  </si>
+  <si>
+    <t>http://adnet.tju.edu.cn/TrustCom2016/</t>
+  </si>
+  <si>
+    <t>http://adnet.tju.edu.cn/TrustCom2016/call_for_papers.html</t>
+  </si>
+  <si>
+    <t>http://www.acm.org/conferences/sac/sac2016/</t>
+  </si>
+  <si>
+    <t>nope</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>noneed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jpn.nec.com/rd/event/ct-rsa16.html</t>
+  </si>
+  <si>
+    <t>nope</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nspw.org/2016</t>
+  </si>
+  <si>
+    <t>http://securecomm.org/2016/show/home</t>
+  </si>
+  <si>
+    <t>pending</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.isc-hpc.com/home.html</t>
+  </si>
+  <si>
+    <t>http://www.isc-hpc.com/research-papers.html</t>
+  </si>
+  <si>
+    <t>nope</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dimva2016.mondragon.edu/</t>
+  </si>
+  <si>
+    <t>http://fc16.ifca.ai/</t>
+  </si>
+  <si>
+    <t>http://www.dfrws.org/2016/</t>
+  </si>
+  <si>
+    <t>http://www.dfrws.org/2016/cfp.shtml</t>
+  </si>
+  <si>
+    <t>AISC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPNGN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICISSP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://conference.researchbib.com/</t>
+  </si>
+  <si>
+    <t>会议检索</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nsclab.org/acisp2016/</t>
+  </si>
+  <si>
+    <t>http://nsclab.org/acisp2016/cfp.html</t>
+  </si>
+  <si>
+    <t>http://acns2016.sccs.surrey.ac.uk/</t>
+  </si>
+  <si>
+    <t>http://acns2016.sccs.surrey.ac.uk/cfp.html</t>
+  </si>
+  <si>
+    <t>http://meeting.xidian.edu.cn/conference/AsiaCCS2016/home.html</t>
+  </si>
+  <si>
+    <t>http://www.sacmat.org/2016/index.php</t>
+  </si>
+  <si>
+    <t>http://www.sacmat.org/2016/papers.php</t>
+  </si>
+  <si>
+    <t>http://ihmmsec.org/</t>
+  </si>
+  <si>
+    <t>http://ihmmsec.org/call-for-papers/</t>
+  </si>
+  <si>
+    <t>http://www.sigsac.org/wisec/WiSec2016/</t>
+  </si>
+  <si>
+    <t>http://www.sigsac.org/wisec/WiSec2016/?q=node/13</t>
   </si>
   <si>
     <t>http://www.chesworkshop.org/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>WiSec</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACM Conference on Security and Privacy inWireless and Mobile Networks</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sigsac.org/wisec/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACM MM&amp;SEC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACM Multimedia and Security Workshop</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.mmsec12.com/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SACMAT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACM Symposium on Access Control Models and Technologies</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sacmat.org/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASIACCS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACM Symposium on Information, Computer and Communications Security</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://dsns.csie.nctu.edu.tw/asiaccs/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACM Workshop on Digital Rights Management</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://drm11.cased.de/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACNS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Applied Cryptography and Network Security</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.geocities.com/acns_home/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACISP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AustralasiaConferenceonInformation Security and Privacy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://ssl.informatics.uow.edu.au/acisp2012/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFRWS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digital Forensic Research Workshop</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elsevier</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.dfrws.org/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Financial Cryptography and Data Security</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://fc13.ifca.ai/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIMVA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detection of Intrusions and Malware &amp; Vulnerability Assessment</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIDAR、GI、Springer</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://dimva.sec.t-labs.tu-berlin.de/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IFIP International Information Security Conference</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IFIP WG 11.9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IFIP WG 11.9 International Conference on Digital Forensics</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ifip119.org/Conferences/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Information Security Conference</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://web.sec.uni-passau.de/isc2012/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Secure Comm</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>International Conference on Security and Privacy in Communication Networks</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.securecomm.org/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>NSPW</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Security Paradigms Workshop</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.nspw.org/current/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT-RSA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSA Conference, Cryptographers' Track</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://conf.isi.qut.edu.au/ct-rsa2013/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Symposium On Usable Privacy and Security</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://cups.cs.cmu.edu/soups/2013/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>HotSec</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>USENIX Workshop on Hot Topics in Security</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>USENIX</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.usenix.org/events/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Selected Areas in Cryptography</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://dblp.uni-trier.de/db/conf/sacrypt/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrustCom</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE International Conference on Trust, Security and Privacy in Computing and Communications</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.scim.brad.ac.uk/~hmibrahi/TrustCom2012/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.iacr.org/conferences/crypto2016/callforpapers.html</t>
-  </si>
-  <si>
-    <t>http://www.sigsac.org/proposal/ccs.html</t>
-  </si>
-  <si>
-    <t>CFP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cfp.org/2015/wiki/index.php/Main_Page</t>
-  </si>
-  <si>
-    <t>ESSoS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://distrinet.cs.kuleuven.be/events/essos/2016/calls-papers.html</t>
-  </si>
-  <si>
-    <t>SIN</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sinconf.org/sin2016/index.php</t>
-  </si>
-  <si>
-    <t>http://www.sinconf.org/sin2016/index.php/sin2016-6</t>
-  </si>
-  <si>
-    <t>https://ifipsec.org/2016/</t>
-  </si>
-  <si>
-    <t>SEC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://asiacrypt2016.com/</t>
-  </si>
-  <si>
-    <t>http://asiacrypt2016.com/?page_id=38</t>
-  </si>
-  <si>
-    <t>pending</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://faculty.cs.tamu.edu/guofei/sec_conf_stat.htm</t>
-  </si>
-  <si>
-    <t>USENIX paper template</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Computer Security Conference Ranking and Statistic</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESORICS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://esorics2015.sba-research.org/</t>
-  </si>
-  <si>
-    <t>pending</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://satoss.uni.lu/members/jun/conference.php</t>
-  </si>
-  <si>
-    <t>Conferences &amp; Workshops on Security and Privacy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICWE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://icwe2016.inf.usi.ch/</t>
-  </si>
-  <si>
-    <t>ICWSM</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.icwsm.org/2016/index.php</t>
-  </si>
-  <si>
-    <t>CSF</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>IEEE Computer Security Foundations Symposium</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://csf2016.tecnico.ulisboa.pt/index.html</t>
-  </si>
-  <si>
-    <t>PETS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://petsymposium.org/2016/</t>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.cs.ucdavis.edu/fse2016/</t>
-  </si>
-  <si>
-    <t>http://www.cs.ucdavis.edu/fse2016/calls/research-papers/</t>
-  </si>
-  <si>
-    <t>https://www.internetsociety.org/events/ndss-symposium-2016</t>
-  </si>
-  <si>
-    <t>http://www.internetsociety.org/events/ndss-symposium-2016/ndss-2016-call-papers</t>
-  </si>
-  <si>
-    <t>http://troll.iis.sinica.edu.tw/pkc16/</t>
-  </si>
-  <si>
-    <t>COMPSAC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.computer.org/portal/web/COMPSAC</t>
+  </si>
+  <si>
+    <t>http://www.chesworkshop.org/ches2016/start.php</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1452,6 +1501,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1776,10 +1828,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1794,22 +1846,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
@@ -1817,39 +1869,39 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3">
         <v>42272</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
@@ -1858,21 +1910,21 @@
         <v>42409</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1883,10 +1935,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1895,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
         <v>42260</v>
@@ -1903,19 +1955,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3">
         <v>42222</v>
@@ -1923,16 +1975,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1940,13 +1992,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
       </c>
       <c r="F8" s="3">
         <v>42268</v>
@@ -1954,30 +2006,30 @@
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6">
         <v>42389</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
       </c>
       <c r="F10" s="3">
         <v>42249</v>
@@ -1985,87 +2037,93 @@
     </row>
     <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="F11" s="6">
         <v>42430</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F12" s="6">
         <v>42401</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="F13" s="6">
         <v>42418</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="6">
         <v>42390</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
       </c>
       <c r="F15" s="3">
         <v>42163</v>
@@ -2073,105 +2131,105 @@
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F18" s="6">
         <v>42440</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="F19" s="3">
         <v>42230</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="F20" s="6">
         <v>42412</v>
@@ -2179,36 +2237,39 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>65</v>
+      <c r="F21" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="F22" s="3">
         <v>42283</v>
@@ -2216,19 +2277,19 @@
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="F23" s="6">
         <v>42450</v>
@@ -2236,499 +2297,595 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
+      <c r="F24" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="6">
+        <v>42433</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C27" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="6">
+        <v>42426</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="6">
+        <v>42416</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D29" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" t="s">
-        <v>90</v>
+      <c r="E29" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="6">
+        <v>42408</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>215</v>
+      </c>
+      <c r="F30" s="3">
+        <v>42335</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="6">
+        <v>42396</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" s="6">
+        <v>42423</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C34" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E34" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F34" s="6">
+        <v>42407</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" t="s">
         <v>98</v>
       </c>
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C35" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="3">
+        <v>42288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D36" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="E36" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="6">
+        <v>42403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
         <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F37" s="3">
-        <v>42301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>42362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
       <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="3">
+        <v>42353</v>
+      </c>
+      <c r="G39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" s="6">
+        <v>42489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D43" t="s">
         <v>118</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E43" t="s">
         <v>119</v>
       </c>
-      <c r="D39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F43" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C44" t="s">
         <v>121</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C45" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D45" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="6">
+        <v>42475</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="E46" t="s">
         <v>127</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F46" s="3">
+        <v>42233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
         <v>128</v>
       </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="E47" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="F47" s="3">
+        <v>42272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="E48" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="F48" s="6">
+        <v>42401</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="3">
-        <v>42233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="3">
-        <v>42272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B49" s="5" t="s">
+      <c r="F49" s="6">
+        <v>42380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E50" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F49" s="6">
-        <v>42401</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" t="s">
-        <v>165</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="F50" s="6">
         <v>42380</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" s="3">
-        <v>42380</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F52" s="6">
+    <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="6">
         <v>42429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="3">
+        <v>42361</v>
+      </c>
+      <c r="G52" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>203</v>
-      </c>
-      <c r="E53" t="s">
-        <v>204</v>
-      </c>
-      <c r="F53" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="F53" s="3">
+        <v>42230</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F54" s="3"/>
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="3">
+        <v>42300</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F55" s="3"/>
+      <c r="B55" t="s">
+        <v>208</v>
+      </c>
+      <c r="F55" s="3">
+        <v>42255</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F56" s="3"/>
@@ -2736,11 +2893,8 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F58" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B60" s="2"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B59" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2751,25 +2905,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2777,18 +2931,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/conferences.xlsx
+++ b/conferences.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="228">
   <si>
     <t>https://www.usenix.org/conferences/author-resources/paper-templates</t>
   </si>
@@ -866,6 +866,22 @@
   </si>
   <si>
     <t>http://www.chesworkshop.org/ches2016/start.php</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pending</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1228,7 +1244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1343,6 +1359,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1472,7 +1503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1491,20 +1522,41 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1828,1075 +1880,1327 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="52.625" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="52.625" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="10">
+        <v>42163</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="10">
+        <v>42222</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="10">
+        <v>42230</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>52</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10">
+        <v>42230</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>45</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="10">
+        <v>42233</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="10">
+        <v>42249</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>54</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10">
+        <v>42255</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="10">
+        <v>42260</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="10">
+        <v>42268</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G11" s="10">
         <v>42272</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H11" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>46</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="10">
+        <v>42272</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="10">
+        <v>42283</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>3</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="10">
+        <v>42285</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>34</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="10">
+        <v>42288</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>53</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10">
+        <v>42300</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="10">
+        <v>42335</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>38</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="10">
+        <v>42353</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>51</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="10">
+        <v>42361</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="10">
+        <v>42362</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>48</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="13">
+        <v>42380</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>49</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="13">
+        <v>42380</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>8</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="13">
+        <v>42389</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>13</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="13">
+        <v>42390</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>31</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="13">
+        <v>42396</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>11</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="13">
+        <v>42401</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>47</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="13">
+        <v>42401</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>35</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="13">
+        <v>42403</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>33</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="13">
+        <v>42407</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" s="13">
+        <v>42408</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>2</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D31" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G31" s="13">
         <v>42409</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H31" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>19</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="13">
+        <v>42412</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>27</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="13">
+        <v>42416</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>12</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="13">
+        <v>42418</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="13">
+        <v>42423</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>26</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G36" s="13">
+        <v>42426</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>50</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="13">
+        <v>42429</v>
+      </c>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>10</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="13">
+        <v>42430</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>25</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="13">
+        <v>42433</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>17</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="13">
+        <v>42440</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>22</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="13">
+        <v>42450</v>
+      </c>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>44</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G42" s="13">
+        <v>42475</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="13">
+        <v>42489</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>30</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>42</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>20</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>23</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>37</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>41</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
+        <v>43</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
+        <v>6</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3">
-        <v>42285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="9">
+        <v>15</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="9">
+        <v>16</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="9">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3">
-        <v>42260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3">
-        <v>42222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="3">
-        <v>42268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="6">
-        <v>42389</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="3">
-        <v>42249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+      <c r="B54" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="9">
+        <v>39</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="6">
-        <v>42430</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="6">
-        <v>42401</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="6">
-        <v>42418</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>42390</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="3">
-        <v>42163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="6">
-        <v>42440</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="3">
-        <v>42230</v>
-      </c>
-      <c r="G19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="6">
-        <v>42412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="3">
-        <v>42283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="6">
-        <v>42450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="6">
-        <v>42433</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="6">
-        <v>42426</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28" s="6">
-        <v>42416</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C55" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="6">
-        <v>42408</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>215</v>
-      </c>
-      <c r="F30" s="3">
-        <v>42335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F32" s="6">
-        <v>42396</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F33" s="6">
-        <v>42423</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F34" s="6">
-        <v>42407</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="3">
-        <v>42288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F36" s="6">
-        <v>42403</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="3">
-        <v>42362</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" s="3">
-        <v>42353</v>
-      </c>
-      <c r="G39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="8" t="s">
+      <c r="F55" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G55" s="17" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F41" s="6">
-        <v>42489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" t="s">
-        <v>191</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="6">
-        <v>42475</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B46" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" t="s">
-        <v>127</v>
-      </c>
-      <c r="F46" s="3">
-        <v>42233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" t="s">
-        <v>129</v>
-      </c>
-      <c r="F47" s="3">
-        <v>42272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="6">
-        <v>42401</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="6">
-        <v>42380</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="6">
-        <v>42380</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F51" s="6">
-        <v>42429</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>184</v>
-      </c>
-      <c r="E52" t="s">
-        <v>185</v>
-      </c>
-      <c r="F52" s="3">
-        <v>42361</v>
-      </c>
-      <c r="G52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>206</v>
-      </c>
-      <c r="F53" s="3">
-        <v>42230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
-        <v>207</v>
-      </c>
-      <c r="F54" s="3">
-        <v>42300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>208</v>
-      </c>
-      <c r="F55" s="3">
-        <v>42255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F57" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B59" s="2"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G57" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C59" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:H55">
+    <sortCondition ref="G2:G55"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2908,48 +3212,52 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="58.5" customWidth="1"/>
+    <col min="2" max="2" width="69.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>209</v>
       </c>
     </row>

--- a/conferences.xlsx
+++ b/conferences.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="286">
   <si>
     <t>https://www.usenix.org/conferences/author-resources/paper-templates</t>
   </si>
@@ -505,10 +505,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Selected Areas in Cryptography</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>TrustCom</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -881,6 +877,215 @@
   </si>
   <si>
     <t>pending</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet Measurement Conference</t>
+  </si>
+  <si>
+    <t>CNS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Conference on Communications and Network Security</t>
+  </si>
+  <si>
+    <t>ACM Symposium on Applied Computing</t>
+  </si>
+  <si>
+    <t>ICICS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Information and Communications Security</t>
+  </si>
+  <si>
+    <t>ICISC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Information Security and Cryptology</t>
+  </si>
+  <si>
+    <t>CODASPY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Conference on Data and Application Security and Privacy</t>
+  </si>
+  <si>
+    <t>MALWARE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Malicious and Unwanted Software</t>
+  </si>
+  <si>
+    <t>http://www.malwareconference.org/</t>
+  </si>
+  <si>
+    <t>WORKSHOP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workshop on Information Hiding</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IWIA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE International Information Assurance Workshop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.iwia.org/</t>
+  </si>
+  <si>
+    <t>IAW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE SMC Information Assurance Workshop "The West Point Workshop"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.itoc.usma.edu/workshop</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRUTI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USENIX Workshop on Steps to Reducing Unwanted Traffic on the Internet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.usenix.org/events/</t>
+  </si>
+  <si>
+    <t>LEET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.usenix.org/legacy/events/bytopic/leet.html</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>USENIX Workshop on Large-scale Exploits and Emergent Threats Supersedes HotBots (USENIX Workshop on Hot Topics in Understanding Botnets) and WORM (ACM Workshop on Recurring/Rapid Malcode)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISPEC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information Security Practice and Experience Conference</t>
+  </si>
+  <si>
+    <t>ICITS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Information Theoretic Security</t>
+  </si>
+  <si>
+    <t>http://www.icits2016.com/</t>
+  </si>
+  <si>
+    <t>Privacy Enhancing Technologies Symposium</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.codaspy.org/</t>
+  </si>
+  <si>
+    <t>https://www.waset.org/conference/2016/05/tokyo/ICISC</t>
+  </si>
+  <si>
+    <t>https://www.waset.org/conference/2016/05/tokyo/ICISC/call-for-papers</t>
+  </si>
+  <si>
+    <t>http://www.icics.info/icics2016/</t>
+  </si>
+  <si>
+    <t>http://www.icics.info/icics2016/new_page/cfp-03.pdf</t>
+  </si>
+  <si>
+    <t>http://www.cnsorg.org/cns-2016-jeju</t>
+  </si>
+  <si>
+    <t>pending</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ispec.co.uk/</t>
+  </si>
+  <si>
+    <t>noneed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://conferences.sigcomm.org/imc/2016/cfp.html</t>
+  </si>
+  <si>
+    <t>http://conferences.sigcomm.org/imc/2016/index.html</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ihmmsec.org/2015/10/20/the-4th-acm-ih-mmsec-2016/</t>
+  </si>
+  <si>
+    <t>http://www.icissp.org/</t>
+  </si>
+  <si>
+    <t>http://www.wikicfp.com/cfp/servlet/event.showcfp?eventid=48485</t>
+  </si>
+  <si>
+    <t>http://ccsit2015.org/2016/aisc/</t>
+  </si>
+  <si>
+    <t>Symposium on Security and Privacy in Next-Generation Networks</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Artificial Intelligence, Soft Computing</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1880,10 +2085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1893,15 +2098,15 @@
     <col min="4" max="4" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="52.625" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -1919,1287 +2124,1675 @@
         <v>16</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G2" s="10">
-        <v>42163</v>
-      </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>42272</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13">
+        <v>42409</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
+        <v>42285</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10">
+        <v>42260</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B6" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G6" s="10">
         <v>42222</v>
       </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="10">
-        <v>42230</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>52</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10">
-        <v>42230</v>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>45</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="10">
-        <v>42233</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="F7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="10">
-        <v>42249</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="10">
-        <v>42255</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>42268</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="13">
+        <v>42389</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
         <v>9</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="10">
-        <v>42260</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="10">
+        <v>42249</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="13">
+        <v>42430</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="13">
+        <v>42401</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="13">
+        <v>42418</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="13">
+        <v>42390</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="10">
+        <v>42163</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="13">
+        <v>42440</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="10">
+        <v>42230</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="13">
+        <v>42412</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="10">
+        <v>42283</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="13">
+        <v>42450</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="13">
+        <v>42433</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="13">
+        <v>42426</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="13">
+        <v>42416</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="13">
+        <v>42408</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="10">
+        <v>42335</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="13">
+        <v>42396</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" s="13">
+        <v>42423</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="G10" s="10">
+      <c r="B34" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="13">
+        <v>42407</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="10">
+        <v>42288</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" s="13">
+        <v>42403</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="10">
+        <v>42362</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="10">
+        <v>42353</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H40" s="17"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" s="13">
+        <v>42489</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="H42" s="16"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" s="16"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="13">
+        <v>42475</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="10">
+        <v>42233</v>
+      </c>
+      <c r="H46" s="10"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="10">
+        <v>42272</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="13">
+        <v>42401</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="13">
+        <v>42380</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="13">
+        <v>42380</v>
+      </c>
+      <c r="H50" s="13"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="13">
+        <v>42429</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" s="10">
+        <v>42361</v>
+      </c>
+      <c r="H52" s="10"/>
+      <c r="I52" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G53" s="10">
+        <v>42335</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G54" s="10">
+        <v>42335</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G55" s="10">
+        <v>42255</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56" s="10">
         <v>42268</v>
       </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="10">
-        <v>42272</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>46</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="10">
-        <v>42272</v>
-      </c>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>21</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="H56" s="10"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G57" s="10">
+        <v>42364</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G58" s="10">
+        <v>42353</v>
+      </c>
+      <c r="H58" s="10"/>
+      <c r="I58" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H59" s="10"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G60" s="10">
+        <v>42193</v>
+      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="9">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="9">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="9">
         <v>65</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="B66" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="9">
         <v>66</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="10">
-        <v>42283</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>3</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="10">
-        <v>42285</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>34</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="10">
-        <v>42288</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>53</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10">
-        <v>42300</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>29</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="10">
-        <v>42335</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>38</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G18" s="10">
-        <v>42353</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>51</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="10">
-        <v>42361</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>36</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="10">
-        <v>42362</v>
-      </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>48</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="13">
-        <v>42380</v>
-      </c>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>49</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="13">
-        <v>42380</v>
-      </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
-        <v>8</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="13">
-        <v>42389</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
-        <v>13</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="13">
-        <v>42390</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
-        <v>31</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="13">
-        <v>42396</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>11</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="13">
-        <v>42401</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>47</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" s="13">
-        <v>42401</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>35</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="G28" s="13">
-        <v>42403</v>
-      </c>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>33</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29" s="13">
-        <v>42407</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>28</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="G30" s="13">
-        <v>42408</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>2</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="13">
-        <v>42409</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>19</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G32" s="13">
-        <v>42412</v>
-      </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>27</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G33" s="13">
-        <v>42416</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
-        <v>12</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="13">
-        <v>42418</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>32</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" s="13">
-        <v>42423</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>26</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G36" s="13">
-        <v>42426</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>50</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="13">
-        <v>42429</v>
-      </c>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>10</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="13">
-        <v>42430</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
-        <v>25</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G39" s="13">
-        <v>42433</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>17</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40" s="13">
-        <v>42440</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>22</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="B67" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G67" s="10">
+        <v>42394</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="9">
         <v>67</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="13">
-        <v>42450</v>
-      </c>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>44</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G42" s="13">
-        <v>42475</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
-        <v>40</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G43" s="13">
-        <v>42489</v>
-      </c>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
-        <v>30</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9">
-        <v>42</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="9">
-        <v>20</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="9">
-        <v>23</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="9">
-        <v>37</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="9">
-        <v>41</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="9">
-        <v>43</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9">
-        <v>6</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="16" t="s">
+      <c r="B68" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="9">
-        <v>15</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="9">
-        <v>16</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="9">
-        <v>24</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="9">
-        <v>39</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G57" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C59" s="2"/>
+      <c r="D68" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G68" s="10">
+        <v>42495</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C72" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H55">
-    <sortCondition ref="G2:G55"/>
+  <sortState ref="A2:H59">
+    <sortCondition ref="A33"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3212,7 +3805,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3223,15 +3816,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>0</v>
@@ -3239,26 +3832,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/conferences.xlsx
+++ b/conferences.xlsx
@@ -1093,7 +1093,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,6 +1256,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1708,7 +1731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1761,6 +1784,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2087,21 +2128,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="13.875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="52.625" customWidth="1"/>
     <col min="7" max="8" width="13.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>223</v>
       </c>
@@ -2130,823 +2172,769 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="9">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G2" s="10">
-        <v>42272</v>
+        <v>42163</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1">
       <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="13">
-        <v>42409</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="10">
+        <v>42193</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10">
-        <v>42285</v>
+        <v>42222</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="9">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="G5" s="10">
-        <v>42260</v>
+        <v>42230</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I5" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>28</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="G6" s="10">
-        <v>42222</v>
+        <v>42233</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="H7" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="G7" s="10">
+        <v>42249</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="9">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="G8" s="10">
-        <v>42268</v>
+        <v>42255</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="5" customFormat="1">
       <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="13">
-        <v>42389</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="10">
+        <v>42260</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G10" s="10">
-        <v>42249</v>
+        <v>42268</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="5" customFormat="1">
       <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="10">
+        <v>42268</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="13">
-        <v>42430</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="13">
-        <v>42401</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="10">
+        <v>42272</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1">
       <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="13">
-        <v>42418</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="13">
-        <v>42390</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="10">
+        <v>42272</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1">
+      <c r="A14" s="19">
+        <v>21</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="21">
+        <v>42283</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G15" s="10">
-        <v>42163</v>
+        <v>42285</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" s="5" customFormat="1">
       <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="10">
+        <v>42288</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1">
+      <c r="A17" s="9">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="10">
+        <v>42335</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" s="22" customFormat="1">
+      <c r="A18" s="9">
+        <v>52</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="10">
+        <v>42335</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9">
         <v>53</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="B19" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" s="10">
+        <v>42335</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1">
+      <c r="A20" s="9">
+        <v>38</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="F20" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="10">
+        <v>42353</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9">
+        <v>57</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="10">
+        <v>42353</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="22" customFormat="1">
+      <c r="A22" s="9">
+        <v>51</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="10">
+        <v>42361</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="6" customFormat="1">
+      <c r="A23" s="9">
+        <v>36</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="10">
+        <v>42362</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="9">
         <v>56</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="B24" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G24" s="10">
+        <v>42364</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="9">
+        <v>48</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="13">
+        <v>42380</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" s="22" customFormat="1">
+      <c r="A26" s="9">
+        <v>49</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="13">
+        <v>42380</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1">
+      <c r="A27" s="9">
+        <v>8</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="13">
+        <v>42389</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="22" customFormat="1">
+      <c r="A28" s="9">
+        <v>13</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="13">
+        <v>42390</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1">
+      <c r="A29" s="18">
+        <v>66</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="13">
+        <v>42394</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="9">
+        <v>31</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="13">
-        <v>42440</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="10">
-        <v>42230</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="13">
-        <v>42412</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G22" s="10">
-        <v>42283</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="13">
-        <v>42450</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G26" s="13">
-        <v>42433</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="F30" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" s="13">
+        <v>42396</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="22" customFormat="1">
+      <c r="A31" s="9">
+        <v>11</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="13">
+        <v>42401</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="6" customFormat="1">
+      <c r="A32" s="9">
+        <v>47</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="13">
+        <v>42401</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1">
+      <c r="A33" s="9">
+        <v>35</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="G27" s="13">
-        <v>42426</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G28" s="13">
-        <v>42416</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G29" s="13">
-        <v>42408</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G30" s="10">
-        <v>42335</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32" s="13">
-        <v>42396</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="C33" s="12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G33" s="13">
-        <v>42423</v>
+        <v>42403</v>
       </c>
       <c r="H33" s="13"/>
-      <c r="I33" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -2973,826 +2961,880 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" s="9">
-        <v>34</v>
-      </c>
-      <c r="B35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="C35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="13">
+        <v>42408</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="6" customFormat="1">
+      <c r="A36" s="9">
+        <v>2</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="13">
+        <v>42409</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="9">
+        <v>19</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="13">
+        <v>42412</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="19">
+        <v>27</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="21">
+        <v>42416</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="9">
+        <v>12</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="13">
+        <v>42418</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="6" customFormat="1">
+      <c r="A40" s="9">
+        <v>32</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="13">
+        <v>42423</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="22" customFormat="1">
+      <c r="A41" s="9">
+        <v>26</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="13">
+        <v>42426</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="9">
+        <v>50</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="13">
+        <v>42429</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="9">
+        <v>10</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="13">
+        <v>42430</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="19">
+        <v>25</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G35" s="10">
-        <v>42288</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="F44" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="21">
+        <v>42433</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="6" customFormat="1">
+      <c r="A45" s="19">
+        <v>17</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="21">
+        <v>42440</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="9">
+        <v>22</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="13">
+        <v>42450</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="9">
+        <v>44</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G36" s="13">
-        <v>42403</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" s="10">
-        <v>42362</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="C47" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G47" s="13">
+        <v>42475</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1">
+      <c r="A48" s="19">
+        <v>40</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G39" s="10">
-        <v>42353</v>
-      </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
-      <c r="B40" s="11" t="s">
+      <c r="C48" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48" s="21">
+        <v>42489</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" s="6" customFormat="1">
+      <c r="A49" s="9">
+        <v>67</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G49" s="10">
+        <v>42495</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="6" customFormat="1">
+      <c r="A50" s="19">
+        <v>30</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="C50" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G41" s="13">
-        <v>42489</v>
-      </c>
-      <c r="H41" s="13" t="s">
+      <c r="F50" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H50" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1">
+      <c r="A51" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F51" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G51" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
-        <v>43</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9">
-        <v>44</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G45" s="13">
-        <v>42475</v>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="9">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G46" s="10">
-        <v>42233</v>
-      </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="9">
-        <v>46</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="10">
-        <v>42272</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="9">
-        <v>47</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="13">
-        <v>42401</v>
-      </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G49" s="13">
-        <v>42380</v>
-      </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="9">
-        <v>49</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G50" s="13">
-        <v>42380</v>
-      </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="9">
-        <v>50</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G51" s="13">
-        <v>42429</v>
-      </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H51" s="16"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="9">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>224</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G52" s="10">
-        <v>42361</v>
+        <v>275</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="H52" s="10"/>
-      <c r="I52" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="9">
-        <v>52</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>224</v>
+        <v>20</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E53" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="F53" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G53" s="10">
-        <v>42335</v>
-      </c>
-      <c r="H53" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H53" s="16"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9">
       <c r="A54" s="9">
+        <v>23</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="9">
+        <v>37</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="9">
+        <v>41</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="9">
+        <v>43</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="9">
+        <v>6</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="9">
+        <v>15</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="G54" s="10">
-        <v>42335</v>
-      </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="9">
+      <c r="D59" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="G55" s="10">
-        <v>42255</v>
-      </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="9">
+      <c r="E59" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G56" s="10">
-        <v>42268</v>
-      </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="9">
+      <c r="F59" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H59" s="17"/>
+      <c r="I59" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="9">
+        <v>16</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G57" s="10">
-        <v>42364</v>
-      </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="9">
-        <v>57</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G58" s="10">
-        <v>42353</v>
-      </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="9">
+      <c r="E60" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" spans="1:9" s="22" customFormat="1">
+      <c r="A61" s="9">
+        <v>24</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" s="16"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" s="22" customFormat="1">
+      <c r="A62" s="9">
+        <v>39</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="1:9" s="22" customFormat="1">
+      <c r="A63" s="9">
         <v>58</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="9">
-        <v>59</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G60" s="10">
-        <v>42193</v>
-      </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="9">
-        <v>60</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="9">
-        <v>61</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="I62" s="8"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="9">
-        <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>224</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" s="22" customFormat="1">
+      <c r="A64" s="19">
+        <v>60</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="I64" s="20"/>
+    </row>
+    <row r="65" spans="1:9" s="22" customFormat="1">
+      <c r="A65" s="19">
+        <v>61</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="19">
+        <v>62</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10" t="s">
+      <c r="G66" s="21"/>
+      <c r="H66" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="9">
+      <c r="I66" s="20"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="19">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B67" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C67" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D67" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
+      <c r="E67" s="20"/>
+      <c r="F67" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10" t="s">
+      <c r="G67" s="21"/>
+      <c r="H67" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="I64" s="8"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="9">
+      <c r="I67" s="20"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="19">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B68" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C68" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D68" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
+      <c r="E68" s="20"/>
+      <c r="F68" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10" t="s">
+      <c r="G68" s="21"/>
+      <c r="H68" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="I65" s="8"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="9">
-        <v>65</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="H66" s="10"/>
-      <c r="I66" s="8"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="9">
-        <v>66</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G67" s="10">
-        <v>42394</v>
-      </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="8"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="9">
-        <v>67</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G68" s="10">
-        <v>42495</v>
-      </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I68" s="20"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9">
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9">
       <c r="C72" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H59">
-    <sortCondition ref="A33"/>
+  <sortState ref="A2:I72">
+    <sortCondition ref="G1"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3808,13 +3850,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="58.5" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>176</v>
       </c>
@@ -3822,7 +3864,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
         <v>138</v>
       </c>
@@ -3830,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>139</v>
       </c>
@@ -3838,7 +3880,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
         <v>144</v>
       </c>
@@ -3846,7 +3888,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
         <v>209</v>
       </c>

--- a/conferences.xlsx
+++ b/conferences.xlsx
@@ -2129,7 +2129,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -3847,7 +3847,8 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/conferences.xlsx
+++ b/conferences.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="288">
   <si>
     <t>https://www.usenix.org/conferences/author-resources/paper-templates</t>
   </si>
@@ -1086,6 +1086,14 @@
   </si>
   <si>
     <t>International Conference on Artificial Intelligence, Soft Computing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>noneed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>noneed</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2129,8 +2137,8 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3723,7 +3731,9 @@
       <c r="F64" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="G64" s="21"/>
+      <c r="G64" s="21" t="s">
+        <v>286</v>
+      </c>
       <c r="H64" s="21" t="s">
         <v>245</v>
       </c>
@@ -3746,7 +3756,9 @@
       <c r="F65" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="G65" s="21"/>
+      <c r="G65" s="21" t="s">
+        <v>192</v>
+      </c>
       <c r="H65" s="21" t="s">
         <v>248</v>
       </c>
@@ -3769,7 +3781,9 @@
       <c r="F66" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="G66" s="21"/>
+      <c r="G66" s="21" t="s">
+        <v>287</v>
+      </c>
       <c r="H66" s="21" t="s">
         <v>253</v>
       </c>
@@ -3792,7 +3806,9 @@
       <c r="F67" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="G67" s="21"/>
+      <c r="G67" s="21" t="s">
+        <v>192</v>
+      </c>
       <c r="H67" s="21" t="s">
         <v>242</v>
       </c>
@@ -3815,7 +3831,9 @@
       <c r="F68" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="G68" s="21"/>
+      <c r="G68" s="21" t="s">
+        <v>287</v>
+      </c>
       <c r="H68" s="21" t="s">
         <v>260</v>
       </c>
